--- a/Test Procedure/Symptom Checker/Conjunctivitis.xlsx
+++ b/Test Procedure/Symptom Checker/Conjunctivitis.xlsx
@@ -14,21 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="5">
-  <si>
-    <t>Pollen Allergy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="2">
   <si>
     <t>Conjunctivitis</t>
   </si>
   <si>
-    <t>Migraines</t>
-  </si>
-  <si>
     <t>Anemia</t>
-  </si>
-  <si>
-    <t>Bronchitis</t>
   </si>
 </sst>
 </file>
@@ -387,7 +378,7 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -395,7 +386,7 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -411,7 +402,7 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -419,7 +410,7 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -427,7 +418,7 @@
         <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -449,7 +440,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -482,7 +473,7 @@
         <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -493,7 +484,7 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -515,7 +506,7 @@
         <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -548,7 +539,7 @@
         <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -559,7 +550,7 @@
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -581,7 +572,7 @@
         <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -592,7 +583,7 @@
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -603,7 +594,7 @@
         <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -614,7 +605,7 @@
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -625,7 +616,7 @@
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -647,7 +638,7 @@
         <v>36</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -658,7 +649,7 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -669,7 +660,7 @@
         <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -680,7 +671,7 @@
         <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -691,7 +682,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -713,7 +704,7 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -724,7 +715,7 @@
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -735,7 +726,7 @@
         <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -749,7 +740,7 @@
         <v>23</v>
       </c>
       <c r="D37" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -791,7 +782,7 @@
         <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -805,7 +796,7 @@
         <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -833,7 +824,7 @@
         <v>33</v>
       </c>
       <c r="D43" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -861,7 +852,7 @@
         <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -875,7 +866,7 @@
         <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -889,7 +880,7 @@
         <v>52</v>
       </c>
       <c r="D47" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -917,7 +908,7 @@
         <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -931,7 +922,7 @@
         <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1001,7 +992,7 @@
         <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1015,7 +1006,7 @@
         <v>52</v>
       </c>
       <c r="D56" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1029,7 +1020,7 @@
         <v>52</v>
       </c>
       <c r="D57" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1043,7 +1034,7 @@
         <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1071,7 +1062,7 @@
         <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1085,7 +1076,7 @@
         <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1099,7 +1090,7 @@
         <v>52</v>
       </c>
       <c r="D62" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1127,7 +1118,7 @@
         <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1141,7 +1132,7 @@
         <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1211,7 +1202,7 @@
         <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -1225,7 +1216,7 @@
         <v>52</v>
       </c>
       <c r="D71" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -1239,7 +1230,7 @@
         <v>52</v>
       </c>
       <c r="D72" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -1253,7 +1244,7 @@
         <v>35</v>
       </c>
       <c r="D73" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1267,7 +1258,7 @@
         <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -1281,7 +1272,7 @@
         <v>42</v>
       </c>
       <c r="D75" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1295,7 +1286,7 @@
         <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -1309,7 +1300,7 @@
         <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -1323,7 +1314,7 @@
         <v>42</v>
       </c>
       <c r="D78" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -1337,7 +1328,7 @@
         <v>52</v>
       </c>
       <c r="D79" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -1351,7 +1342,7 @@
         <v>42</v>
       </c>
       <c r="D80" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1365,7 +1356,7 @@
         <v>52</v>
       </c>
       <c r="D81" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1379,7 +1370,7 @@
         <v>52</v>
       </c>
       <c r="D82" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1393,7 +1384,7 @@
         <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1407,7 +1398,7 @@
         <v>42</v>
       </c>
       <c r="D84" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1435,7 +1426,7 @@
         <v>42</v>
       </c>
       <c r="D86" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1449,7 +1440,7 @@
         <v>52</v>
       </c>
       <c r="D87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1463,7 +1454,7 @@
         <v>52</v>
       </c>
       <c r="D88" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1477,7 +1468,7 @@
         <v>42</v>
       </c>
       <c r="D89" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1491,7 +1482,7 @@
         <v>52</v>
       </c>
       <c r="D90" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1505,7 +1496,7 @@
         <v>52</v>
       </c>
       <c r="D91" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1519,7 +1510,7 @@
         <v>52</v>
       </c>
       <c r="D92" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1536,7 +1527,7 @@
         <v>33</v>
       </c>
       <c r="E93" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1570,7 +1561,7 @@
         <v>36</v>
       </c>
       <c r="E95" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -1587,7 +1578,7 @@
         <v>42</v>
       </c>
       <c r="E96" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -1638,7 +1629,7 @@
         <v>36</v>
       </c>
       <c r="E99" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -1655,7 +1646,7 @@
         <v>42</v>
       </c>
       <c r="E100" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -1740,7 +1731,7 @@
         <v>42</v>
       </c>
       <c r="E105" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -1808,7 +1799,7 @@
         <v>36</v>
       </c>
       <c r="E109" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -1825,7 +1816,7 @@
         <v>42</v>
       </c>
       <c r="E110" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -1842,7 +1833,7 @@
         <v>52</v>
       </c>
       <c r="E111" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -1859,7 +1850,7 @@
         <v>36</v>
       </c>
       <c r="E112" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -1876,7 +1867,7 @@
         <v>42</v>
       </c>
       <c r="E113" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -1910,7 +1901,7 @@
         <v>42</v>
       </c>
       <c r="E115" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -1927,7 +1918,7 @@
         <v>52</v>
       </c>
       <c r="E116" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -1944,7 +1935,7 @@
         <v>52</v>
       </c>
       <c r="E117" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2012,7 +2003,7 @@
         <v>42</v>
       </c>
       <c r="E121" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2029,7 +2020,7 @@
         <v>52</v>
       </c>
       <c r="E122" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2046,7 +2037,7 @@
         <v>52</v>
       </c>
       <c r="E123" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2063,7 +2054,7 @@
         <v>42</v>
       </c>
       <c r="E124" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2114,7 +2105,7 @@
         <v>52</v>
       </c>
       <c r="E127" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2148,7 +2139,7 @@
         <v>36</v>
       </c>
       <c r="E129" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2165,7 +2156,7 @@
         <v>42</v>
       </c>
       <c r="E130" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2182,7 +2173,7 @@
         <v>52</v>
       </c>
       <c r="E131" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2199,7 +2190,7 @@
         <v>36</v>
       </c>
       <c r="E132" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2216,7 +2207,7 @@
         <v>42</v>
       </c>
       <c r="E133" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2250,7 +2241,7 @@
         <v>42</v>
       </c>
       <c r="E135" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2267,7 +2258,7 @@
         <v>52</v>
       </c>
       <c r="E136" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2284,7 +2275,7 @@
         <v>52</v>
       </c>
       <c r="E137" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2352,7 +2343,7 @@
         <v>42</v>
       </c>
       <c r="E141" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2369,7 +2360,7 @@
         <v>52</v>
       </c>
       <c r="E142" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2386,7 +2377,7 @@
         <v>52</v>
       </c>
       <c r="E143" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2403,7 +2394,7 @@
         <v>42</v>
       </c>
       <c r="E144" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2454,7 +2445,7 @@
         <v>52</v>
       </c>
       <c r="E147" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2471,7 +2462,7 @@
         <v>36</v>
       </c>
       <c r="E148" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2488,7 +2479,7 @@
         <v>42</v>
       </c>
       <c r="E149" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2505,7 +2496,7 @@
         <v>52</v>
       </c>
       <c r="E150" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -2522,7 +2513,7 @@
         <v>42</v>
       </c>
       <c r="E151" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -2539,7 +2530,7 @@
         <v>52</v>
       </c>
       <c r="E152" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -2556,7 +2547,7 @@
         <v>52</v>
       </c>
       <c r="E153" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -2573,7 +2564,7 @@
         <v>42</v>
       </c>
       <c r="E154" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -2590,7 +2581,7 @@
         <v>52</v>
       </c>
       <c r="E155" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -2607,7 +2598,7 @@
         <v>52</v>
       </c>
       <c r="E156" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -2624,7 +2615,7 @@
         <v>52</v>
       </c>
       <c r="E157" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -2641,7 +2632,7 @@
         <v>42</v>
       </c>
       <c r="E158" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -2658,7 +2649,7 @@
         <v>52</v>
       </c>
       <c r="E159" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -2675,7 +2666,7 @@
         <v>52</v>
       </c>
       <c r="E160" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -2692,7 +2683,7 @@
         <v>52</v>
       </c>
       <c r="E161" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -2709,7 +2700,7 @@
         <v>52</v>
       </c>
       <c r="E162" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -2749,7 +2740,7 @@
         <v>36</v>
       </c>
       <c r="F164" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -2769,7 +2760,7 @@
         <v>42</v>
       </c>
       <c r="F165" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -2809,7 +2800,7 @@
         <v>36</v>
       </c>
       <c r="F167" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -2829,7 +2820,7 @@
         <v>42</v>
       </c>
       <c r="F168" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -2869,7 +2860,7 @@
         <v>42</v>
       </c>
       <c r="F170" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -2889,7 +2880,7 @@
         <v>52</v>
       </c>
       <c r="F171" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -2909,7 +2900,7 @@
         <v>52</v>
       </c>
       <c r="F172" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -2989,7 +2980,7 @@
         <v>42</v>
       </c>
       <c r="F176" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -3049,7 +3040,7 @@
         <v>42</v>
       </c>
       <c r="F179" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -3109,7 +3100,7 @@
         <v>52</v>
       </c>
       <c r="F182" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -3129,7 +3120,7 @@
         <v>36</v>
       </c>
       <c r="F183" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -3149,7 +3140,7 @@
         <v>42</v>
       </c>
       <c r="F184" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -3189,7 +3180,7 @@
         <v>42</v>
       </c>
       <c r="F186" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -3209,7 +3200,7 @@
         <v>52</v>
       </c>
       <c r="F187" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -3229,7 +3220,7 @@
         <v>52</v>
       </c>
       <c r="F188" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -3249,7 +3240,7 @@
         <v>42</v>
       </c>
       <c r="F189" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -3269,7 +3260,7 @@
         <v>52</v>
       </c>
       <c r="F190" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -3289,7 +3280,7 @@
         <v>52</v>
       </c>
       <c r="F191" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -3309,7 +3300,7 @@
         <v>52</v>
       </c>
       <c r="F192" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -3329,7 +3320,7 @@
         <v>42</v>
       </c>
       <c r="F193" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -3389,7 +3380,7 @@
         <v>52</v>
       </c>
       <c r="F196" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -3409,7 +3400,7 @@
         <v>52</v>
       </c>
       <c r="F197" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -3429,7 +3420,7 @@
         <v>36</v>
       </c>
       <c r="F198" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -3449,7 +3440,7 @@
         <v>42</v>
       </c>
       <c r="F199" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -3489,7 +3480,7 @@
         <v>42</v>
       </c>
       <c r="F201" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -3509,7 +3500,7 @@
         <v>52</v>
       </c>
       <c r="F202" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -3529,7 +3520,7 @@
         <v>52</v>
       </c>
       <c r="F203" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -3549,7 +3540,7 @@
         <v>42</v>
       </c>
       <c r="F204" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -3569,7 +3560,7 @@
         <v>52</v>
       </c>
       <c r="F205" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -3589,7 +3580,7 @@
         <v>52</v>
       </c>
       <c r="F206" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -3609,7 +3600,7 @@
         <v>52</v>
       </c>
       <c r="F207" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -3629,7 +3620,7 @@
         <v>42</v>
       </c>
       <c r="F208" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -3689,7 +3680,7 @@
         <v>52</v>
       </c>
       <c r="F211" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -3709,7 +3700,7 @@
         <v>52</v>
       </c>
       <c r="F212" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -3729,7 +3720,7 @@
         <v>42</v>
       </c>
       <c r="F213" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -3749,7 +3740,7 @@
         <v>52</v>
       </c>
       <c r="F214" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -3769,7 +3760,7 @@
         <v>52</v>
       </c>
       <c r="F215" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -3789,7 +3780,7 @@
         <v>52</v>
       </c>
       <c r="F216" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -3809,7 +3800,7 @@
         <v>52</v>
       </c>
       <c r="F217" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -3829,7 +3820,7 @@
         <v>52</v>
       </c>
       <c r="F218" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -3852,7 +3843,7 @@
         <v>36</v>
       </c>
       <c r="G219" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -3875,7 +3866,7 @@
         <v>42</v>
       </c>
       <c r="G220" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -3921,7 +3912,7 @@
         <v>42</v>
       </c>
       <c r="G222" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -3944,7 +3935,7 @@
         <v>52</v>
       </c>
       <c r="G223" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -3967,7 +3958,7 @@
         <v>52</v>
       </c>
       <c r="G224" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -3990,7 +3981,7 @@
         <v>42</v>
       </c>
       <c r="G225" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -4013,7 +4004,7 @@
         <v>52</v>
       </c>
       <c r="G226" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -4036,7 +4027,7 @@
         <v>52</v>
       </c>
       <c r="G227" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -4059,7 +4050,7 @@
         <v>52</v>
       </c>
       <c r="G228" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -4082,7 +4073,7 @@
         <v>42</v>
       </c>
       <c r="G229" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -4151,7 +4142,7 @@
         <v>52</v>
       </c>
       <c r="G232" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -4174,7 +4165,7 @@
         <v>52</v>
       </c>
       <c r="G233" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -4197,7 +4188,7 @@
         <v>42</v>
       </c>
       <c r="G234" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -4220,7 +4211,7 @@
         <v>52</v>
       </c>
       <c r="G235" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -4243,7 +4234,7 @@
         <v>52</v>
       </c>
       <c r="G236" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -4266,7 +4257,7 @@
         <v>52</v>
       </c>
       <c r="G237" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -4289,7 +4280,7 @@
         <v>52</v>
       </c>
       <c r="G238" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -4312,7 +4303,7 @@
         <v>52</v>
       </c>
       <c r="G239" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -4335,7 +4326,7 @@
         <v>42</v>
       </c>
       <c r="G240" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -4358,7 +4349,7 @@
         <v>52</v>
       </c>
       <c r="G241" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -4381,7 +4372,7 @@
         <v>52</v>
       </c>
       <c r="G242" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -4404,7 +4395,7 @@
         <v>52</v>
       </c>
       <c r="G243" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -4427,7 +4418,7 @@
         <v>52</v>
       </c>
       <c r="G244" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -4450,7 +4441,7 @@
         <v>52</v>
       </c>
       <c r="G245" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -4473,7 +4464,7 @@
         <v>52</v>
       </c>
       <c r="G246" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -4499,7 +4490,7 @@
         <v>42</v>
       </c>
       <c r="H247" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -4577,7 +4568,7 @@
         <v>52</v>
       </c>
       <c r="H250" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -4603,7 +4594,7 @@
         <v>52</v>
       </c>
       <c r="H251" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -4629,7 +4620,7 @@
         <v>52</v>
       </c>
       <c r="H252" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -4655,7 +4646,7 @@
         <v>52</v>
       </c>
       <c r="H253" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -4681,7 +4672,7 @@
         <v>52</v>
       </c>
       <c r="H254" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -4710,7 +4701,7 @@
         <v>52</v>
       </c>
       <c r="I255" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Test Procedure/Symptom Checker/Conjunctivitis.xlsx
+++ b/Test Procedure/Symptom Checker/Conjunctivitis.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27510"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mason/Documents/Senior-Design-2-Electric-Boogaloo/Test Procedure/Symptom Checker/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="14680"/>
   </bookViews>
   <sheets>
     <sheet name="Conjunctivitis" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,8 +38,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -55,14 +68,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,12 +128,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -141,14 +160,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -175,6 +195,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,14 +371,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I255"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O255"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>7</v>
       </c>
@@ -365,31 +388,140 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="F2">
+        <f>COUNTIF(B:B, "Conjunctivitis")</f>
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <f t="shared" ref="G2:M2" si="0">COUNTIF(C:C, "Conjunctivitis")</f>
+        <v>28</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f>SUM(F2:M2)</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>23</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="F3">
+        <f>COUNTIF(B:B, "*")</f>
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:N3" si="1">COUNTIF(C:C, "*")</f>
+        <v>28</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <f>SUM(F3:M3)</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>33</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="F4" s="1">
+        <f>F2/F3</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" ref="G4:O4" si="2">G2/G3</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1">
+        <f t="shared" si="2"/>
+        <v>0.99607843137254903</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>35</v>
       </c>
@@ -397,7 +529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>36</v>
       </c>
@@ -405,7 +537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>42</v>
       </c>
@@ -413,7 +545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>52</v>
       </c>
@@ -421,7 +553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -432,7 +564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -443,7 +575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -454,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>7</v>
       </c>
@@ -465,7 +597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>7</v>
       </c>
@@ -476,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>7</v>
       </c>
@@ -487,7 +619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>7</v>
       </c>
@@ -498,7 +630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>22</v>
       </c>
@@ -509,7 +641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>22</v>
       </c>
@@ -520,7 +652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>22</v>
       </c>
@@ -531,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>22</v>
       </c>
@@ -542,7 +674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>22</v>
       </c>
@@ -553,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>22</v>
       </c>
@@ -564,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>23</v>
       </c>
@@ -575,7 +707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>23</v>
       </c>
@@ -586,7 +718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -597,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -608,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -619,7 +751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>33</v>
       </c>
@@ -630,7 +762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>33</v>
       </c>
@@ -641,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>33</v>
       </c>
@@ -652,7 +784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>33</v>
       </c>
@@ -663,7 +795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>35</v>
       </c>
@@ -674,7 +806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>35</v>
       </c>
@@ -685,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>35</v>
       </c>
@@ -696,7 +828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>36</v>
       </c>
@@ -707,7 +839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>36</v>
       </c>
@@ -718,7 +850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>42</v>
       </c>
@@ -729,7 +861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>7</v>
       </c>
@@ -743,7 +875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>7</v>
       </c>
@@ -757,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7</v>
       </c>
@@ -771,7 +903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7</v>
       </c>
@@ -785,7 +917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7</v>
       </c>
@@ -799,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7</v>
       </c>
@@ -813,7 +945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7</v>
       </c>
@@ -827,7 +959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>7</v>
       </c>
@@ -841,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7</v>
       </c>
@@ -855,7 +987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>7</v>
       </c>
@@ -869,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>7</v>
       </c>
@@ -883,7 +1015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>7</v>
       </c>
@@ -897,7 +1029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>7</v>
       </c>
@@ -911,7 +1043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>7</v>
       </c>
@@ -925,7 +1057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>7</v>
       </c>
@@ -939,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>7</v>
       </c>
@@ -953,7 +1085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>7</v>
       </c>
@@ -967,7 +1099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>7</v>
       </c>
@@ -981,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>7</v>
       </c>
@@ -995,7 +1127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>7</v>
       </c>
@@ -1009,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7</v>
       </c>
@@ -1023,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>22</v>
       </c>
@@ -1037,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>22</v>
       </c>
@@ -1051,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>22</v>
       </c>
@@ -1065,7 +1197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>22</v>
       </c>
@@ -1079,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>22</v>
       </c>
@@ -1093,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>22</v>
       </c>
@@ -1107,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>22</v>
       </c>
@@ -1121,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>22</v>
       </c>
@@ -1135,7 +1267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>22</v>
       </c>
@@ -1149,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>22</v>
       </c>
@@ -1163,7 +1295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>22</v>
       </c>
@@ -1177,7 +1309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>22</v>
       </c>
@@ -1191,7 +1323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>22</v>
       </c>
@@ -1205,7 +1337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>22</v>
       </c>
@@ -1219,7 +1351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>22</v>
       </c>
@@ -1233,7 +1365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>23</v>
       </c>
@@ -1247,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>23</v>
       </c>
@@ -1261,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>23</v>
       </c>
@@ -1275,7 +1407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>23</v>
       </c>
@@ -1289,7 +1421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>23</v>
       </c>
@@ -1303,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>23</v>
       </c>
@@ -1317,7 +1449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>23</v>
       </c>
@@ -1331,7 +1463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>23</v>
       </c>
@@ -1345,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>23</v>
       </c>
@@ -1359,7 +1491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>23</v>
       </c>
@@ -1373,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>33</v>
       </c>
@@ -1387,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>33</v>
       </c>
@@ -1401,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>33</v>
       </c>
@@ -1415,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>33</v>
       </c>
@@ -1429,7 +1561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>33</v>
       </c>
@@ -1443,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>33</v>
       </c>
@@ -1457,7 +1589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>35</v>
       </c>
@@ -1471,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>35</v>
       </c>
@@ -1485,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>35</v>
       </c>
@@ -1499,7 +1631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>36</v>
       </c>
@@ -1513,7 +1645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>7</v>
       </c>
@@ -1530,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>7</v>
       </c>
@@ -1547,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>7</v>
       </c>
@@ -1564,7 +1696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>7</v>
       </c>
@@ -1581,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>7</v>
       </c>
@@ -1598,7 +1730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>7</v>
       </c>
@@ -1615,7 +1747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>7</v>
       </c>
@@ -1632,7 +1764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>7</v>
       </c>
@@ -1649,7 +1781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>7</v>
       </c>
@@ -1666,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>7</v>
       </c>
@@ -1683,7 +1815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>7</v>
       </c>
@@ -1700,7 +1832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>7</v>
       </c>
@@ -1717,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>7</v>
       </c>
@@ -1734,7 +1866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>7</v>
       </c>
@@ -1751,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>7</v>
       </c>
@@ -1768,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>7</v>
       </c>
@@ -1785,7 +1917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>7</v>
       </c>
@@ -1802,7 +1934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>7</v>
       </c>
@@ -1819,7 +1951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>7</v>
       </c>
@@ -1836,7 +1968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>7</v>
       </c>
@@ -1853,7 +1985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>7</v>
       </c>
@@ -1870,7 +2002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>7</v>
       </c>
@@ -1887,7 +2019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>7</v>
       </c>
@@ -1904,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>7</v>
       </c>
@@ -1921,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>7</v>
       </c>
@@ -1938,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>7</v>
       </c>
@@ -1955,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>7</v>
       </c>
@@ -1972,7 +2104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>7</v>
       </c>
@@ -1989,7 +2121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>7</v>
       </c>
@@ -2006,7 +2138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>7</v>
       </c>
@@ -2023,7 +2155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>7</v>
       </c>
@@ -2040,7 +2172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>7</v>
       </c>
@@ -2057,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>7</v>
       </c>
@@ -2074,7 +2206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>7</v>
       </c>
@@ -2091,7 +2223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>7</v>
       </c>
@@ -2108,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>22</v>
       </c>
@@ -2125,7 +2257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>22</v>
       </c>
@@ -2142,7 +2274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>22</v>
       </c>
@@ -2159,7 +2291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>22</v>
       </c>
@@ -2176,7 +2308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>22</v>
       </c>
@@ -2193,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>22</v>
       </c>
@@ -2210,7 +2342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>22</v>
       </c>
@@ -2227,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>22</v>
       </c>
@@ -2244,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>22</v>
       </c>
@@ -2261,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>22</v>
       </c>
@@ -2278,7 +2410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>22</v>
       </c>
@@ -2295,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>22</v>
       </c>
@@ -2312,7 +2444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>22</v>
       </c>
@@ -2329,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>22</v>
       </c>
@@ -2346,7 +2478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>22</v>
       </c>
@@ -2363,7 +2495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>22</v>
       </c>
@@ -2380,7 +2512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>22</v>
       </c>
@@ -2397,7 +2529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>22</v>
       </c>
@@ -2414,7 +2546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>22</v>
       </c>
@@ -2431,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>22</v>
       </c>
@@ -2448,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>23</v>
       </c>
@@ -2465,7 +2597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>23</v>
       </c>
@@ -2482,7 +2614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>23</v>
       </c>
@@ -2499,7 +2631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>23</v>
       </c>
@@ -2516,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>23</v>
       </c>
@@ -2533,7 +2665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>23</v>
       </c>
@@ -2550,7 +2682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>23</v>
       </c>
@@ -2567,7 +2699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>23</v>
       </c>
@@ -2584,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>23</v>
       </c>
@@ -2601,7 +2733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>23</v>
       </c>
@@ -2618,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>33</v>
       </c>
@@ -2635,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>33</v>
       </c>
@@ -2652,7 +2784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>33</v>
       </c>
@@ -2669,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>33</v>
       </c>
@@ -2686,7 +2818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>35</v>
       </c>
@@ -2703,7 +2835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>7</v>
       </c>
@@ -2723,7 +2855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>7</v>
       </c>
@@ -2743,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>7</v>
       </c>
@@ -2763,7 +2895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>7</v>
       </c>
@@ -2783,7 +2915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>7</v>
       </c>
@@ -2803,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>7</v>
       </c>
@@ -2823,7 +2955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>7</v>
       </c>
@@ -2843,7 +2975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>7</v>
       </c>
@@ -2863,7 +2995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>7</v>
       </c>
@@ -2883,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>7</v>
       </c>
@@ -2903,7 +3035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>7</v>
       </c>
@@ -2923,7 +3055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>7</v>
       </c>
@@ -2943,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>7</v>
       </c>
@@ -2963,7 +3095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>7</v>
       </c>
@@ -2983,7 +3115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>7</v>
       </c>
@@ -3003,7 +3135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>7</v>
       </c>
@@ -3023,7 +3155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>7</v>
       </c>
@@ -3043,7 +3175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>7</v>
       </c>
@@ -3063,7 +3195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>7</v>
       </c>
@@ -3083,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>7</v>
       </c>
@@ -3103,7 +3235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>7</v>
       </c>
@@ -3123,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>7</v>
       </c>
@@ -3143,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>7</v>
       </c>
@@ -3163,7 +3295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>7</v>
       </c>
@@ -3183,7 +3315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>7</v>
       </c>
@@ -3203,7 +3335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>7</v>
       </c>
@@ -3223,7 +3355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>7</v>
       </c>
@@ -3243,7 +3375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>7</v>
       </c>
@@ -3263,7 +3395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>7</v>
       </c>
@@ -3283,7 +3415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>7</v>
       </c>
@@ -3303,7 +3435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>7</v>
       </c>
@@ -3323,7 +3455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>7</v>
       </c>
@@ -3343,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>7</v>
       </c>
@@ -3363,7 +3495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>7</v>
       </c>
@@ -3383,7 +3515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>7</v>
       </c>
@@ -3403,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>22</v>
       </c>
@@ -3423,7 +3555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>22</v>
       </c>
@@ -3443,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>22</v>
       </c>
@@ -3463,7 +3595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>22</v>
       </c>
@@ -3483,7 +3615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>22</v>
       </c>
@@ -3503,7 +3635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>22</v>
       </c>
@@ -3523,7 +3655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>22</v>
       </c>
@@ -3543,7 +3675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>22</v>
       </c>
@@ -3563,7 +3695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>22</v>
       </c>
@@ -3583,7 +3715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>22</v>
       </c>
@@ -3603,7 +3735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>22</v>
       </c>
@@ -3623,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:7">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>22</v>
       </c>
@@ -3643,7 +3775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:7">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>22</v>
       </c>
@@ -3663,7 +3795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:7">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>22</v>
       </c>
@@ -3683,7 +3815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:7">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>22</v>
       </c>
@@ -3703,7 +3835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:7">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>23</v>
       </c>
@@ -3723,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:7">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>23</v>
       </c>
@@ -3743,7 +3875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:7">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>23</v>
       </c>
@@ -3763,7 +3895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:7">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>23</v>
       </c>
@@ -3783,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:7">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>23</v>
       </c>
@@ -3803,7 +3935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:7">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>33</v>
       </c>
@@ -3823,7 +3955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:7">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>7</v>
       </c>
@@ -3846,7 +3978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:7">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>7</v>
       </c>
@@ -3869,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:7">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>7</v>
       </c>
@@ -3892,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:7">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>7</v>
       </c>
@@ -3915,7 +4047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:7">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>7</v>
       </c>
@@ -3938,7 +4070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:7">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>7</v>
       </c>
@@ -3961,7 +4093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:7">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>7</v>
       </c>
@@ -3984,7 +4116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>7</v>
       </c>
@@ -4007,7 +4139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>7</v>
       </c>
@@ -4030,7 +4162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>7</v>
       </c>
@@ -4053,7 +4185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>7</v>
       </c>
@@ -4076,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>7</v>
       </c>
@@ -4099,7 +4231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>7</v>
       </c>
@@ -4122,7 +4254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>7</v>
       </c>
@@ -4145,7 +4277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>7</v>
       </c>
@@ -4168,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>7</v>
       </c>
@@ -4191,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:7">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>7</v>
       </c>
@@ -4214,7 +4346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:7">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>7</v>
       </c>
@@ -4237,7 +4369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:7">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>7</v>
       </c>
@@ -4260,7 +4392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:7">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>7</v>
       </c>
@@ -4283,7 +4415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:7">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>7</v>
       </c>
@@ -4306,7 +4438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:7">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>22</v>
       </c>
@@ -4329,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>22</v>
       </c>
@@ -4352,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>22</v>
       </c>
@@ -4375,7 +4507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>22</v>
       </c>
@@ -4398,7 +4530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>22</v>
       </c>
@@ -4421,7 +4553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>22</v>
       </c>
@@ -4444,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>23</v>
       </c>
@@ -4467,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>7</v>
       </c>
@@ -4493,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>7</v>
       </c>
@@ -4519,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>7</v>
       </c>
@@ -4545,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>7</v>
       </c>
@@ -4571,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>7</v>
       </c>
@@ -4597,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>7</v>
       </c>
@@ -4623,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>7</v>
       </c>
@@ -4649,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>22</v>
       </c>
@@ -4675,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>7</v>
       </c>
